--- a/2.3G - 3.xlsx
+++ b/2.3G - 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsm44\Desktop\trabalhoPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297E911C-B228-4D60-97DE-40D3BBBFF096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48852379-F137-44A9-9D21-7A10E35E3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,15 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3G - 3'!$F$2:$F$5</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3G - 3'!$F$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3G - 3'!$B$20:$H$20</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3G - 3'!$F$20</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!$G$20</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3G - 3'!$G$20</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3G - 3'!$G$20</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3G - 3'!$H$20</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3G - 3'!$I$17</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3G - 3'!$F$3:$F$5</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3G - 3'!$F$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3G - 3'!$F$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!$I$4</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3G - 3'!$H$23</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3G - 3'!$I$20</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -39,31 +39,31 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3G - 3'!$F$2</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3G - 3'!$H$2:$H$5</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$18</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3G - 3'!$H$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3G - 3'!$K$9</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3G - 3'!$K$16</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3G - 3'!$K$10</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3G - 3'!$K$8</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3G - 3'!$K$11</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3G - 3'!$K$17</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3G - 3'!$H$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3G - 3'!$H$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3G - 3'!$F$4</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3G - 3'!$K$13</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3G - 3'!$K$11</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3G - 3'!$K$14</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3G - 3'!$K$20</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -71,7 +71,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -80,61 +80,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>PROBLEMA</t>
   </si>
   <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>A nova escola pode ocupar uma área máxima de 2 acres a uma taxa de no máximo 25 alunos por sala de aula. O custo operacional anual por sala de aula é $ 10.000, O projeto será localizado em uma propriedade desocupada de 50 acres pertencente ao municipio. Além disso, o projeto pode fazer uso de uma propriedade adjacente ocupada por 200 cortiços condenados. Cada casa condenada ocupa 0,25 acres. O custo para comprar e demolir uma unidade de cortiço é $ 7.000. Espaços abertos, ruas e estacionamentos consomem 15% do terreno total disponível,</t>
-  </si>
-  <si>
-    <t>Desenvolva um modelo de programação linear para determinar o plano ótimo para o projeto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A cidade de Fayetteville está concebendo um projeto de renovação urbana que incluirá conjuntos habitacionais de casas peminadas para baixa e média rendas, apartamentos de luxo para rendas mais altas e conjuntos habitacionais públicos. O projeto também inclui uma escola primária e lojas de varejo. O tamanho da escola primária (número de salas de aula) é proporcional ao número de alunos, e o espaço para comércio varejista é proporcional ao número de unidades residenciais. A Tabela G apresenta os dados pertinentes à situação.</t>
-  </si>
-  <si>
     <t>&lt;=</t>
   </si>
   <si>
@@ -180,16 +135,19 @@
     <t>VALOR ANUNCIO</t>
   </si>
   <si>
-    <t>AREA URB</t>
-  </si>
-  <si>
-    <t>AREA SUB</t>
-  </si>
-  <si>
-    <t>AREA RUR</t>
-  </si>
-  <si>
     <t>MIN VOTOS</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>URBANA</t>
+  </si>
+  <si>
+    <t>SUBURBANA</t>
+  </si>
+  <si>
+    <t>RURAL</t>
   </si>
 </sst>
 </file>
@@ -586,15 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="14" max="14" width="69.85546875" customWidth="1"/>
@@ -605,16 +565,16 @@
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -629,80 +589,77 @@
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="C2" s="6">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="D2" s="6">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="6">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" cm="1">
-        <f t="array" ref="F2:F6" xml:space="preserve"> MMULT(B2:E6,TRANSPOSE(B7:E7))</f>
-        <v>66.666666666666686</v>
+        <v>1500</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="array" ref="F2:F5">MMULT(B2:E5,TRANSPOSE(B7:E7))</f>
+        <v>4890.9090909090919</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6">
-        <f>100/1.5</f>
-        <v>66.666666666666671</v>
+        <v>100000</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="N2" s="10"/>
       <c r="O2" s="3"/>
       <c r="P2" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" t="e">
-        <f ca="1">_xludf.MIN($I$2)</f>
+        <f ca="1">_xludf.MIN($F$2)</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6">
-        <v>-3</v>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>-30000</v>
       </c>
       <c r="C3" s="6">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="D3" s="6">
-        <v>4</v>
+        <v>40000</v>
       </c>
       <c r="E3" s="6">
-        <v>9</v>
+        <v>90000</v>
       </c>
       <c r="F3" s="6">
-        <v>8.1578947368421098</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6"/>
@@ -710,38 +667,39 @@
       <c r="N3" s="10"/>
       <c r="O3" s="3"/>
       <c r="P3" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3">
-        <f>COUNT($B$20:$H$20)</f>
-        <v>0</v>
+        <f>COUNT($B$7:$E$7)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>60000</v>
       </c>
       <c r="C4" s="6">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>25</v>
+        <v>104000.00000000003</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6">
-        <v>25</v>
+        <f>25*10000</f>
+        <v>250000</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="6"/>
@@ -749,38 +707,39 @@
       <c r="N4" s="10"/>
       <c r="O4" s="3"/>
       <c r="P4" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="R4" t="b">
-        <f t="array" ref="R4">$B$20:$E$20&gt;=$K$3:$K$7</f>
+        <f t="array" ref="R4">$F$2:$F$5&lt;=$H$2:$H$5</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="C5" s="6">
-        <v>-4.5</v>
+        <v>-45000</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>-2.5</v>
+        <v>-25000</v>
       </c>
       <c r="F5" s="6">
-        <v>5</v>
+        <v>7.2759576141834259E-12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>5</v>
+        <f>5*10000</f>
+        <v>50000</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
@@ -788,17 +747,17 @@
       <c r="N5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" t="b">
-        <f t="array" ref="R5">$B$20:$E$20&lt;=$K$12:$K$15</f>
+        <f t="array" ref="R5">$F$3:$F$5&gt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -813,14 +772,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>6.6666666666666679</v>
+        <f>SUM(F3:F5)</f>
+        <v>204000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6">
-        <f>0.5*SUM(H3:H5)</f>
-        <v>20</v>
+        <f>SUM(H3:H5)*0.51</f>
+        <v>204000</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
@@ -829,35 +789,45 @@
       <c r="O6" s="3"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
+      <c r="R6" t="b">
+        <f>$F$6=$H$6</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6">
-        <v>3.2456140350877192</v>
+        <v>1.5878787878787883</v>
       </c>
       <c r="C7" s="6">
-        <v>1.0526315789473684</v>
+        <v>0.29090909090909123</v>
       </c>
       <c r="D7" s="6">
-        <v>2.3684210526315801</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>1.3818181818181816</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUM(B7:E7)</f>
+        <v>3.2606060606060612</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f>H2/1500</f>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="N7" s="10"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="11"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
       <c r="R7" t="b">
-        <f t="array" ref="R7">$B$20:$H$20=INT($B$20:$H$20)</f>
+        <f>$F$7&lt;=$H$7</f>
         <v>1</v>
       </c>
     </row>
@@ -875,11 +845,11 @@
       <c r="K8" s="6"/>
       <c r="N8" s="10"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" t="b">
-        <f>$F$20=$K$9</f>
-        <v>1</v>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8">
+        <f>{32767;32767;0.0000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -896,13 +866,11 @@
       <c r="K9" s="6"/>
       <c r="N9" s="10"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" t="b">
-        <f>$G$20&lt;=$K$16</f>
-        <v>1</v>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -920,15 +888,11 @@
       <c r="N10" s="10"/>
       <c r="O10" s="3"/>
       <c r="P10" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="11"/>
-      <c r="R10" t="b">
-        <f>$G$20=$K$10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -942,10 +906,8 @@
       <c r="K11" s="6"/>
       <c r="N11" s="10"/>
       <c r="O11" s="3"/>
-      <c r="R11" t="b">
-        <f>$G$20&gt;=$K$8</f>
-        <v>1</v>
-      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -961,12 +923,12 @@
       <c r="K12" s="6"/>
       <c r="N12" s="10"/>
       <c r="O12" s="3"/>
-      <c r="R12" t="b">
-        <f>$H$20&lt;=$K$11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -978,16 +940,14 @@
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="N13" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="N13" s="10"/>
       <c r="O13" s="3"/>
-      <c r="R13" t="b">
-        <f>$I$17&lt;=$K$17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1001,10 +961,6 @@
       <c r="K14" s="6"/>
       <c r="N14" s="10"/>
       <c r="O14" s="3"/>
-      <c r="R14" t="b">
-        <f>$K$19&lt;=$K$18</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1020,12 +976,8 @@
       <c r="K15" s="6"/>
       <c r="N15" s="10"/>
       <c r="O15" s="3"/>
-      <c r="R15">
-        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1039,10 +991,6 @@
       <c r="K16" s="6"/>
       <c r="N16" s="10"/>
       <c r="O16" s="3"/>
-      <c r="R16">
-        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1090,6 +1038,7 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1097,61 +1046,103 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="N20" s="10"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="N21" s="10"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="N22" s="10"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
       <c r="N23" s="10"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="10"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="10"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="10"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N2:N12"/>
-    <mergeCell ref="N13:N23"/>
-    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N2:N15"/>
+    <mergeCell ref="N16:N26"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P11:Q11"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:H17">
+  <conditionalFormatting sqref="A10:A22 C3:H3 B2:H2 B4:H20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A19">
+  <conditionalFormatting sqref="A8:A9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/2.3G - 3.xlsx
+++ b/2.3G - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48852379-F137-44A9-9D21-7A10E35E3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC150F9A-B5C0-43B5-93D8-444F2C897D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,11 @@
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3G - 3'!$F$3:$F$5</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3G - 3'!$F$6</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3G - 3'!$F$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!$I$4</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3G - 3'!$H$23</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3G - 3'!$I$20</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -85,36 +85,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>PROBLEMA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>&lt;=</t>
-  </si>
-  <si>
-    <t>LEGENDA</t>
-  </si>
-  <si>
-    <t>RB = RENDA BAIXA</t>
-  </si>
-  <si>
-    <t>RM = RENDA MÉDIA</t>
-  </si>
-  <si>
-    <t>RA = RENDA ALTA</t>
-  </si>
-  <si>
-    <t>CHP = CONJUNTO HABITACIONAL PUBLICO</t>
-  </si>
-  <si>
-    <t>SD A = SALA DE AULA</t>
-  </si>
-  <si>
-    <t>LV = LOJA DE VAREJOS</t>
-  </si>
-  <si>
-    <t>C = CORTIÇOS</t>
   </si>
   <si>
     <t>SOLVER</t>
@@ -154,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +154,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,33 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,595 +501,451 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="14" max="14" width="69.85546875" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
         <v>1500</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>1500</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>1500</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>1500</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <f t="array" ref="F2:F5">MMULT(B2:E5,TRANSPOSE(B7:E7))</f>
         <v>4890.9090909090919</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>100000</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" t="e">
+      <c r="I2" t="e">
         <f ca="1">_xludf.MIN($F$2)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-30000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>80000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>40000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>90000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>99999.999999999985</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>100000</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3">
+      <c r="I3">
         <f>COUNT($B$7:$E$7)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
         <v>60000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>30000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>10000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>104000.00000000003</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <f>25*10000</f>
         <v>250000</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" t="b">
-        <f t="array" ref="R4">$F$2:$F$5&lt;=$H$2:$H$5</f>
+      <c r="I4" t="b">
+        <f t="array" ref="I4">$F$2:$F$5&lt;=$H$2:$H$5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>30000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>-45000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>-25000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <f>5*10000</f>
         <v>50000</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" t="b">
-        <f t="array" ref="R5">$F$3:$F$5&gt;=0</f>
+      <c r="I5" t="b">
+        <f t="array" ref="I5">$F$3:$F$5&gt;=0</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <f>SUM(F3:F5)</f>
         <v>204000</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
         <f>SUM(H3:H5)*0.51</f>
         <v>204000</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" t="b">
+      <c r="I6" t="b">
         <f>$F$6=$H$6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3">
         <v>1.5878787878787883</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.29090909090909123</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>1.3818181818181816</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <f>SUM(B7:E7)</f>
         <v>3.2606060606060612</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <f>H2/1500</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" t="b">
+      <c r="I7" t="b">
         <f>$F$7&lt;=$H$7</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8">
         <f>{32767;32767;0.0000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
         <v>32767</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N24" s="10"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N25" s="10"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N26" s="10"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N27" s="10"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="N2:N15"/>
-    <mergeCell ref="N16:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P11:Q11"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A10:A22 C3:H3 B2:H2 B4:H20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A8:A22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:H2 C3:H3 B4:H20">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2.3G - 3.xlsx
+++ b/2.3G - 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC150F9A-B5C0-43B5-93D8-444F2C897D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6F9D5-6B34-4A2E-846D-1D4091A9E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,21 @@
     <sheet name="2.3G - 3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3G - 3'!$B$7:$E$7</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3G - 3'!$B$26:$E$27</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3G - 3'!$F$2:$F$5</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3G - 3'!$F$3:$F$5</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3G - 3'!$F$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3G - 3'!$F$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3G - 3'!$G$23</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3G - 3'!$H$23</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3G - 3'!$B$26:$E$26</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3G - 3'!$B$27:$E$27</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3G - 3'!$F$16:$F$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3G - 3'!$F$20:$F$23</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3G - 3'!$F$24</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3G - 3'!$F$27</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3G - 3'!$G$28</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3G - 3'!$H$28</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -39,31 +39,31 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3G - 3'!$F$2</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000001</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3G - 3'!$F$27</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3G - 3'!$H$2:$H$5</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3G - 3'!$K$21</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3G - 3'!$H$6</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3G - 3'!$H$7</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3G - 3'!$F$4</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3G - 3'!$K$13</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3G - 3'!$K$11</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3G - 3'!$K$14</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3G - 3'!$K$20</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"número inteiro"</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3G - 3'!$H$16:$H$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3G - 3'!$H$20:$H$23</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3G - 3'!$H$24</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3G - 3'!$H$27</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3G - 3'!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -71,11 +71,11 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>&lt;=</t>
   </si>
@@ -108,12 +108,6 @@
     <t>VALOR ANUNCIO</t>
   </si>
   <si>
-    <t>MIN VOTOS</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>URBANA</t>
   </si>
   <si>
@@ -121,6 +115,33 @@
   </si>
   <si>
     <t>RURAL</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>MIN VOTOS RDV</t>
+  </si>
+  <si>
+    <t>MIN VOTOS CAF</t>
+  </si>
+  <si>
+    <t>MIN VOTOS SPA</t>
+  </si>
+  <si>
+    <t>MIN VOTOS ISG</t>
+  </si>
+  <si>
+    <t>TOTAL DE ANUNCIOS</t>
+  </si>
+  <si>
+    <t>ALOCAÇÃO DE ANUNCIOS</t>
+  </si>
+  <si>
+    <t>PAUTAS VOTADAS</t>
+  </si>
+  <si>
+    <t>MULTIPLICAO</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -490,22 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -530,7 +567,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -547,8 +584,8 @@
         <v>1500</v>
       </c>
       <c r="F2" s="3">
-        <f t="array" ref="F2:F5">MMULT(B2:E5,TRANSPOSE(B7:E7))</f>
-        <v>4890.9090909090919</v>
+        <f t="array" ref="F2:F10">MMULT(B2:E10,TRANSPOSE(B11:E11))</f>
+        <v>9713.7651821862346</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
@@ -557,15 +594,15 @@
         <v>100000</v>
       </c>
       <c r="I2" t="e">
-        <f ca="1">_xludf.MIN($F$2)</f>
+        <f ca="1">_xludf.MAX($F$2)</f>
         <v>#NAME?</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>-30000</v>
@@ -580,7 +617,7 @@
         <v>90000</v>
       </c>
       <c r="F3" s="3">
-        <v>99999.999999999985</v>
+        <v>99999.999999999927</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -589,15 +626,15 @@
         <v>100000</v>
       </c>
       <c r="I3">
-        <f>COUNT($B$7:$E$7)</f>
+        <f>COUNT($B$11:$E$11)</f>
         <v>4</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>60000</v>
@@ -612,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>104000.00000000003</v>
+        <v>250000</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
@@ -622,15 +659,27 @@
         <v>250000</v>
       </c>
       <c r="I4" t="b">
-        <f t="array" ref="I4">$F$2:$F$5&lt;=$H$2:$H$5</f>
+        <f>$F$10&lt;=$H$10</f>
         <v>1</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>-30000</v>
+      </c>
+      <c r="P4" s="3">
+        <v>80000</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="R4" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>30000</v>
@@ -645,145 +694,221 @@
         <v>-25000</v>
       </c>
       <c r="F5" s="3">
-        <v>7.2759576141834259E-12</v>
+        <v>40821.862348178198</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>5*10000</f>
         <v>50000</v>
       </c>
       <c r="I5" t="b">
-        <f t="array" ref="I5">$F$3:$F$5&gt;=0</f>
+        <f t="array" ref="I5">$F$3:$F$5&lt;=$H$3:$H$5</f>
         <v>1</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <f>SUM(B3:B5)</f>
+        <v>60000</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>SUM(F3:F5)</f>
-        <v>204000</v>
+        <v>217295.54655870449</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
-        <f>SUM(H3:H5)*0.51</f>
-        <v>204000</v>
-      </c>
-      <c r="I6" t="b">
-        <f>$F$6=$H$6</f>
-        <v>1</v>
+        <f>SUM(H3:H5)*0.15</f>
+        <v>60000</v>
+      </c>
+      <c r="I6">
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="O6" s="3">
+        <v>30000</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="3">
-        <v>1.5878787878787883</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>0.29090909090909123</v>
+        <f>SUM(C3:C5)</f>
+        <v>65000</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1.3818181818181816</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>SUM(B7:E7)</f>
-        <v>3.2606060606060612</v>
+        <v>53526.315789473614</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
+        <f>SUM(H3:H5)*0.2</f>
+        <v>80000</v>
+      </c>
+      <c r="I7">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(D3:D5)</f>
+        <v>50000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SUM(H3:H5)*0.1</f>
+        <v>40000</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM(E3:E5)</f>
+        <v>65000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>80000.000000000015</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <f>SUM(H3:H5)*0.2</f>
+        <v>80000</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.475843454790823</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <f>H2/1500</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="I7" t="b">
-        <f>$F$7&lt;=$H$7</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8">
-        <f>{32767;32767;0.0000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
-        <v>32767</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9">
-        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3">
+        <v>3.621592442645075</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.82348178137651717</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.2307692307692311</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -795,7 +920,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -807,7 +932,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -819,133 +944,403 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+    <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="array" ref="F16:F24">MMULT(B16:E24,TRANSPOSE(B25:E25))</f>
+        <v>10589.887640449648</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-30000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100000.00000000515</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>250000.00000000009</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f>25*10000</f>
+        <v>250000</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50000.000000001113</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <f>SUM(B17:B19)</f>
+        <v>60000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>191011.2359550554</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <f>SUM(H17:H19)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C17:C19)</f>
+        <v>65000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>65730.337078649507</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <f>SUM(H17:H19)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(D17:D19)</f>
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>143258.42696630143</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <f>SUM(H17:H19)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM(E17:E19)</f>
+        <v>65000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <f>SUM(H17:H19)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7.0599250936330975</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f>H16/1500</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B26*B27</f>
+        <v>3.1835205992509232</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:E25" si="0">C26*C27</f>
+        <v>1.0112359550561463</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8651685393260284</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.2057342938338627</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.2256474290336057</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.3821726116155157</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.99307063763030301</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.82506268205815281</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.84713847231985684</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>SUM(B27:E27)</f>
+        <v>2.6652717920083124</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f>SUM(F27:I27)</f>
+        <v>6.665271792008312</v>
+      </c>
+    </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:A22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A12:H14 B16:I16 F16:H25 C17:I17 B26:E27 B27:J27 F26 B18:I25">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2 C3:H3 B4:H20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:H2 C3:H3">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H10 B11:F11">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:R6">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:R4">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
